--- a/biology/Zoologie/Indothais/Indothais.xlsx
+++ b/biology/Zoologie/Indothais/Indothais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Indothais est un genre de mollusques gastéropodes prédateurs.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Indothais a été créé en 2013 par Martine Claremont (d), Geerat J. Vermeij (d), Suzanne T. Williams (d) et David Gordon Reid (d)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Indothais a été créé en 2013 par Martine Claremont (d), Geerat J. Vermeij (d), Suzanne T. Williams (d) et David Gordon Reid (d)
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (9 mai 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (9 mai 2016) :
 Indothais blanfordi (Melvill, 1893)
 Indothais dubia (Schepman, 1919)
 Indothais gradata (Jonas, 1846)
@@ -583,7 +599,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Martine Claremont, Geerat J. Vermeij, Suzanne T. Williams et David G. Reid, « Global phylogeny and new classification of the Rapaninae (Gastropoda: Muricidae), dominant molluscan predators on tropical rocky seashores », Molecular Phylogenetics and Evolution, Academic Press et Elsevier, vol. 66, no 1,‎ 28 septembre 2012, p. 91-102 (ISSN 1055-7903 et 1095-9513, PMID 23026810, DOI 10.1016/J.YMPEV.2012.09.014)</t>
         </is>
